--- a/biology/Botanique/Square_Charles-Péguy/Square_Charles-Péguy.xlsx
+++ b/biology/Botanique/Square_Charles-Péguy/Square_Charles-Péguy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Charles-P%C3%A9guy</t>
+          <t>Square_Charles-Péguy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Charles-Péguy est le plus grand square municipal du 12e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Charles-P%C3%A9guy</t>
+          <t>Square_Charles-Péguy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par la rue de Montempoivre, la rue Marie-Laurencin et la rue Rottembourg.
 Il est desservi à proximité par la ligne de métro 6 à la station Bel-Air et par la ligne 3a du tramway d'Île-de-France à l'arrêt Montempoivre.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Charles-P%C3%A9guy</t>
+          <t>Square_Charles-Péguy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom honore l’écrivain français Charles Péguy (1873-1914).
 Il existe aussi, et depuis 1926, une rue Péguy dans le 6e arrondissement de Paris, portant elle aussi le nom du même écrivain, bien que le prénom ne soit pas spécifié.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Charles-P%C3%A9guy</t>
+          <t>Square_Charles-Péguy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square, d'une superficie de 13 045 m2, créé en 1989, est situé sur une partie de l’embranchement ferroviaire qui reliait la ligne de Petite Ceinture et la ligne de la Bastille[1].
-En 2007, il a obtenu le label espaces verts écologiques décerné par ÉCOCERT[2]. En janvier 2008, une extension du square de 2 860 m2 a été inaugurée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square, d'une superficie de 13 045 m2, créé en 1989, est situé sur une partie de l’embranchement ferroviaire qui reliait la ligne de Petite Ceinture et la ligne de la Bastille.
+En 2007, il a obtenu le label espaces verts écologiques décerné par ÉCOCERT. En janvier 2008, une extension du square de 2 860 m2 a été inaugurée.
 </t>
         </is>
       </c>
